--- a/rp/Excel/Tab1_一级页签.xlsx
+++ b/rp/Excel/Tab1_一级页签.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,7 +43,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,7 +71,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,11 +97,14 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,29 +432,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="37"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -466,7 +464,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -495,7 +493,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -516,7 +514,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="str">
@@ -539,14 +537,14 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>捏脸</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Text_Tab1_1</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -568,14 +566,14 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>换装</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>Text_Tab1_2</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -597,14 +595,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>收藏</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Text_Tab1_3</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -626,14 +624,14 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>测试</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>Text_Tab1_4</v>
       </c>
       <c r="D8" s="1"/>
@@ -653,10 +651,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -674,10 +672,10 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -695,10 +693,10 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -716,7 +714,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -737,7 +735,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -758,7 +756,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -779,7 +777,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -800,7 +798,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -821,7 +819,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -842,7 +840,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -863,7 +861,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -884,7 +882,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -905,7 +903,3788 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Tab1_一级页签.xlsx
+++ b/rp/Excel/Tab1_一级页签.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,202 +29,1245 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Int</t>
+    <t>Int</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">Int[]</t>
+    <t>Int[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe</t>
+    <t>Describe</t>
   </si>
   <si>
-    <t xml:space="preserve">Text</t>
+    <t>Text</t>
   </si>
   <si>
-    <t xml:space="preserve">Tab2</t>
+    <t>Tab2</t>
   </si>
   <si>
-    <t xml:space="preserve">Language</t>
+    <t>Language</t>
   </si>
   <si>
-    <t xml:space="preserve">捏脸</t>
+    <t>捏脸</t>
   </si>
   <si>
-    <t xml:space="preserve">Text_Tab1_1</t>
+    <t>Text_Tab1_1</t>
   </si>
   <si>
-    <t xml:space="preserve">101|102|103|104|105|106|107</t>
+    <t>101|102|103|104|105|106|107</t>
   </si>
   <si>
-    <t xml:space="preserve">换装</t>
+    <t>换装</t>
   </si>
   <si>
-    <t xml:space="preserve">Text_Tab1_2</t>
+    <t>Text_Tab1_2</t>
   </si>
   <si>
-    <t xml:space="preserve">108|109|110|111|112|113|114|115</t>
+    <t>108|109|110|111|112|113|115|114</t>
   </si>
   <si>
-    <t xml:space="preserve">收藏</t>
+    <t>收藏</t>
   </si>
   <si>
-    <t xml:space="preserve">Text_Tab1_3</t>
+    <t>Text_Tab1_3</t>
   </si>
   <si>
-    <t xml:space="preserve">测试</t>
+    <t>测试</t>
   </si>
   <si>
-    <t xml:space="preserve">Text_Tab1_4</t>
+    <t>Text_Tab1_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.078125" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.075" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.97"/>
+    <col min="4" max="4" width="31.9666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -246,7 +1296,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -275,7 +1325,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -296,7 +1346,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -319,8 +1369,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -348,8 +1398,8 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:19">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -377,8 +1427,8 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:19">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -404,8 +1454,8 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:19">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -431,7 +1481,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -452,7 +1502,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -473,7 +1523,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -494,7 +1544,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -515,7 +1565,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -536,7 +1586,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -557,7 +1607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -578,7 +1628,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -599,7 +1649,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -620,7 +1670,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -641,7 +1691,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -662,7 +1712,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -683,7 +1733,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -704,7 +1754,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -725,7 +1775,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -746,7 +1796,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -767,7 +1817,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -788,7 +1838,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -809,7 +1859,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -830,7 +1880,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -851,7 +1901,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -872,7 +1922,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -893,7 +1943,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -914,7 +1964,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -935,7 +1985,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -956,7 +2006,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -977,7 +2027,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -998,7 +2048,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:19">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1019,7 +2069,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:19">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1040,7 +2090,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:19">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1061,7 +2111,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:19">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1082,7 +2132,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:19">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1103,7 +2153,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:19">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1124,7 +2174,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:19">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1145,7 +2195,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:19">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1166,7 +2216,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:19">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1187,7 +2237,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:19">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1208,7 +2258,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:19">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1229,7 +2279,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:19">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1250,7 +2300,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:19">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1271,7 +2321,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:19">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1292,7 +2342,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:19">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1313,7 +2363,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:19">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1334,7 +2384,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:19">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1355,7 +2405,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:19">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1376,7 +2426,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:19">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1397,7 +2447,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:19">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1418,7 +2468,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:19">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1439,7 +2489,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:19">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1460,7 +2510,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:19">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1481,7 +2531,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:19">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1502,7 +2552,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:19">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1523,7 +2573,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:19">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1544,7 +2594,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:19">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1565,7 +2615,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:19">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1586,7 +2636,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:19">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1607,7 +2657,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:19">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1628,7 +2678,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:19">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1649,7 +2699,7 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:19">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1670,7 +2720,7 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:19">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1691,7 +2741,7 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:19">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1712,7 +2762,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:19">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1733,7 +2783,7 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:19">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1754,7 +2804,7 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:19">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1775,7 +2825,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:19">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1796,7 +2846,7 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:19">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1817,7 +2867,7 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:19">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1838,7 +2888,7 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:19">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1859,7 +2909,7 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:19">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1880,7 +2930,7 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:19">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1901,7 +2951,7 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:19">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1922,7 +2972,7 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:19">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1943,7 +2993,7 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:19">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1964,7 +3014,7 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:19">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1985,7 +3035,7 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:19">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2006,7 +3056,7 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:19">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2027,7 +3077,7 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:19">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2048,7 +3098,7 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:19">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2069,7 +3119,7 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:19">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2090,7 +3140,7 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:19">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2111,7 +3161,7 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:19">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2132,7 +3182,7 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:19">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2153,7 +3203,7 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:19">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2174,7 +3224,7 @@
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:19">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2195,7 +3245,7 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:19">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2216,7 +3266,7 @@
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:19">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2237,7 +3287,7 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:19">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2258,7 +3308,7 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:19">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2279,7 +3329,7 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:19">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2300,7 +3350,7 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:19">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2321,7 +3371,7 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:19">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2342,7 +3392,7 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:19">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2363,7 +3413,7 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:19">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2384,7 +3434,7 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:19">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2405,7 +3455,7 @@
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:19">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2426,7 +3476,7 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:19">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2447,7 +3497,7 @@
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:19">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2468,7 +3518,7 @@
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:19">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2489,7 +3539,7 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:19">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2510,7 +3560,7 @@
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:19">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2531,7 +3581,7 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:19">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2552,7 +3602,7 @@
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:19">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2573,7 +3623,7 @@
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:19">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2594,7 +3644,7 @@
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:19">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2615,7 +3665,7 @@
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:19">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2636,7 +3686,7 @@
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:19">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2657,7 +3707,7 @@
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:19">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2678,7 +3728,7 @@
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:19">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2699,7 +3749,7 @@
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:19">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2720,7 +3770,7 @@
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:19">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2741,7 +3791,7 @@
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:19">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2762,7 +3812,7 @@
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:19">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2783,7 +3833,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:19">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2804,7 +3854,7 @@
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:19">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2825,7 +3875,7 @@
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:19">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2846,7 +3896,7 @@
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:19">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2867,7 +3917,7 @@
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:19">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2888,7 +3938,7 @@
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:19">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2909,7 +3959,7 @@
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:19">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2930,7 +3980,7 @@
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:19">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2951,7 +4001,7 @@
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:19">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2972,7 +4022,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:19">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2993,7 +4043,7 @@
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:19">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3014,7 +4064,7 @@
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:19">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3035,7 +4085,7 @@
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:19">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3056,7 +4106,7 @@
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:19">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3077,7 +4127,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:19">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3098,7 +4148,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:19">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3119,7 +4169,7 @@
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:19">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3140,7 +4190,7 @@
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:19">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3161,7 +4211,7 @@
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:19">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3182,7 +4232,7 @@
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:19">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3203,7 +4253,7 @@
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:19">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3224,7 +4274,7 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:19">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3245,7 +4295,7 @@
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:19">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3266,7 +4316,7 @@
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:19">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3287,7 +4337,7 @@
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:19">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3308,7 +4358,7 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:19">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3329,7 +4379,7 @@
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:19">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3350,7 +4400,7 @@
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:19">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3371,7 +4421,7 @@
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:19">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3392,7 +4442,7 @@
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:19">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3413,7 +4463,7 @@
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:19">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3434,7 +4484,7 @@
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:19">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3455,7 +4505,7 @@
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:19">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3476,7 +4526,7 @@
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:19">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3497,7 +4547,7 @@
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:19">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3518,7 +4568,7 @@
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:19">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3539,7 +4589,7 @@
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:19">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3560,7 +4610,7 @@
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:19">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3581,7 +4631,7 @@
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:19">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3602,7 +4652,7 @@
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:19">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3623,7 +4673,7 @@
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:19">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3644,7 +4694,7 @@
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:19">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3665,7 +4715,7 @@
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:19">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3686,7 +4736,7 @@
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:19">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3707,7 +4757,7 @@
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:19">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3728,7 +4778,7 @@
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:19">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3749,7 +4799,7 @@
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:19">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3770,7 +4820,7 @@
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:19">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3791,7 +4841,7 @@
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:19">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3812,7 +4862,7 @@
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:19">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3833,7 +4883,7 @@
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:19">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3854,7 +4904,7 @@
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:19">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3875,7 +4925,7 @@
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:19">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3896,7 +4946,7 @@
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:19">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3917,7 +4967,7 @@
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:19">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3938,7 +4988,7 @@
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:19">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3959,7 +5009,7 @@
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:19">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3980,7 +5030,7 @@
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:19">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4001,7 +5051,7 @@
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:19">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4022,7 +5072,7 @@
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:19">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4043,7 +5093,7 @@
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:19">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4064,7 +5114,7 @@
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:19">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4085,7 +5135,7 @@
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:19">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4106,7 +5156,7 @@
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:19">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4127,7 +5177,7 @@
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:19">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4148,7 +5198,7 @@
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:19">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4169,7 +5219,7 @@
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:19">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4190,7 +5240,7 @@
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:19">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4211,7 +5261,7 @@
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:19">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4232,7 +5282,7 @@
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:19">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4253,7 +5303,7 @@
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:19">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4274,7 +5324,7 @@
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:19">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4295,7 +5345,7 @@
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:19">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4316,7 +5366,7 @@
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:19">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4337,7 +5387,7 @@
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:19">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4358,7 +5408,7 @@
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:19">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4379,7 +5429,7 @@
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:19">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4400,7 +5450,7 @@
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:19">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4421,7 +5471,7 @@
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:19">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4442,7 +5492,7 @@
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:19">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4464,13 +5514,9 @@
       <c r="S200" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Tab1_一级页签.xlsx
+++ b/rp/Excel/Tab1_一级页签.xlsx
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:S200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.075" defaultRowHeight="16.5"/>
@@ -1455,9 +1455,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
